--- a/notebookccdm_gen3/runspectractor_standalone/2023_07/logbooks/auxtellogbook_empty~holo4_003_20230117_v6.0.xlsx
+++ b/notebookccdm_gen3/runspectractor_standalone/2023_07/logbooks/auxtellogbook_empty~holo4_003_20230117_v6.0.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>MU-COL</t>
+          <t>HD38666</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6340,7 +6340,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>/Users/sylvie/DATA/AuxTelData2023/data/2023/empty~holo4_003/20230117</t>
+          <t>/sps/lsst/groups/auxtel/data/hack_usdf/my_postisrccd_img_forspectractor_2023/empty~holo4_003/20230117</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
